--- a/project_notebooks/regression/car_price_variables.xlsx
+++ b/project_notebooks/regression/car_price_variables.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quannguyen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quannguyen/Data_Science/AAMLP/project_notebooks/regression/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3789FEE8-82FC-7941-92B6-768A0CE462D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E221945-5901-C34B-9E03-371A7765DE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D2E9E57D-0BC1-2B45-B92E-3B221267CDC1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{D2E9E57D-0BC1-2B45-B92E-3B221267CDC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$17</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t xml:space="preserve">Column </t>
   </si>
@@ -115,6 +118,9 @@
   </si>
   <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can create country </t>
   </si>
 </sst>
 </file>
@@ -483,16 +489,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45DC18D-3EB7-FC45-8A67-549B297CB1D3}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28">
@@ -519,6 +527,9 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="16">
       <c r="A3" s="1" t="s">
@@ -531,7 +542,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16">
+    <row r="4" spans="1:4" ht="16" hidden="1">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -553,7 +564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16">
+    <row r="6" spans="1:4" ht="16" hidden="1">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -564,7 +575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16">
+    <row r="7" spans="1:4" ht="16" hidden="1">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -597,7 +608,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16">
+    <row r="10" spans="1:4" ht="16" hidden="1">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -641,7 +652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16">
+    <row r="14" spans="1:4" ht="16" hidden="1">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -652,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4" ht="16" hidden="1">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -663,7 +674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16">
+    <row r="16" spans="1:4" ht="16" hidden="1">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -674,7 +685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16">
+    <row r="17" spans="1:2" ht="16" hidden="1">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -683,6 +694,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D17" xr:uid="{D45DC18D-3EB7-FC45-8A67-549B297CB1D3}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="categorical (str)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>